--- a/Data/0_raw/datos_dane_exportaciones_procesadas.xlsx
+++ b/Data/0_raw/datos_dane_exportaciones_procesadas.xlsx
@@ -97515,7 +97515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-26 12:44:45</t>
+          <t>2025-05-29 11:49:01</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/Data/0_raw/datos_dane_exportaciones_procesadas.xlsx
+++ b/Data/0_raw/datos_dane_exportaciones_procesadas.xlsx
@@ -97515,7 +97515,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-29 11:49:01</t>
+          <t>2025-06-05 13:53:04</t>
         </is>
       </c>
       <c r="C2" t="n">
